--- a/voc.xlsx
+++ b/voc.xlsx
@@ -1,58 +1,226 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiashu/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC798808-F6F9-CD41-811E-E46629CD587F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16460" xr2:uid="{C80FE728-E775-A34F-8D13-DD1BD70FFAB9}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="VOC（收集结果）" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
+  <si>
+    <t>提交时间（自动）</t>
+  </si>
+  <si>
+    <t>Lang（必填）</t>
+  </si>
+  <si>
+    <t>Voc（必填）</t>
+  </si>
+  <si>
+    <t>Meaning（必填）</t>
+  </si>
+  <si>
+    <t>提交者（自动）</t>
+  </si>
   <si>
     <t>EN</t>
   </si>
   <si>
-    <t>FR</t>
+    <t>extravaganza</t>
+  </si>
+  <si>
+    <t>盛会</t>
+  </si>
+  <si>
+    <t>jiashu</t>
+  </si>
+  <si>
+    <t>entail</t>
+  </si>
+  <si>
+    <t>使必要；牵涉</t>
+  </si>
+  <si>
+    <t>entangle</t>
+  </si>
+  <si>
+    <t>（用网、绳等）缠住，套住</t>
+  </si>
+  <si>
+    <t>plummet</t>
+  </si>
+  <si>
+    <t>暴跌，急剧下降</t>
+  </si>
+  <si>
+    <t>tentative</t>
+  </si>
+  <si>
+    <t>（计划、想法、建议、行动等）试验（性）的，试探（性）的，暂时的</t>
+  </si>
+  <si>
+    <t>imperceptible</t>
+  </si>
+  <si>
+    <t>察觉不出的，难以察觉的</t>
+  </si>
+  <si>
+    <t>perturb</t>
+  </si>
+  <si>
+    <t>使烦恼；使担心</t>
+  </si>
+  <si>
+    <t>predominant</t>
+  </si>
+  <si>
+    <t>占主导地位的；占绝大多数的；显着的</t>
+  </si>
+  <si>
+    <t>reprehensible</t>
+  </si>
+  <si>
+    <t>应受斥责的;应受指责的;不道德的</t>
+  </si>
+  <si>
+    <t>apprehend</t>
+  </si>
+  <si>
+    <t>逮捕;拘捕;领会;理解;懂得</t>
+  </si>
+  <si>
+    <t>elicit</t>
+  </si>
+  <si>
+    <t>引出，探出，诱出（尤指信息或反应）</t>
+  </si>
+  <si>
+    <t>resonate</t>
+  </si>
+  <si>
+    <t>发出回响;发出共鸣;回荡;充满，弥漫（某种特质）</t>
+  </si>
+  <si>
+    <t>reverberate</t>
+  </si>
+  <si>
+    <t>回响，回荡</t>
+  </si>
+  <si>
+    <t>tycoon</t>
+  </si>
+  <si>
+    <t>（商界或企业界的）巨头，大亨</t>
+  </si>
+  <si>
+    <t>somber</t>
+  </si>
+  <si>
+    <t>严肃的;忧郁的</t>
+  </si>
+  <si>
+    <t>overshadow</t>
+  </si>
+  <si>
+    <t>使黯然失色；使相形见绌；使蒙上阴影</t>
+  </si>
+  <si>
+    <t>evildoer</t>
+  </si>
+  <si>
+    <t>为非作歹者，作恶的人;恶人</t>
+  </si>
+  <si>
+    <t>contiguity</t>
+  </si>
+  <si>
+    <t>相邻;毗连</t>
+  </si>
+  <si>
+    <t>contiguous</t>
+  </si>
+  <si>
+    <t>相近的，相邻的;毗邻的;互相连接的</t>
+  </si>
+  <si>
+    <t>sporadic</t>
+  </si>
+  <si>
+    <t>偶尔发生的;阵发性的;断断续续的</t>
+  </si>
+  <si>
+    <t>mesh</t>
+  </si>
+  <si>
+    <t>（金属丝、塑料或线织成的）网，网状物;紧密配合；相互协调</t>
+  </si>
+  <si>
+    <t>columnar</t>
+  </si>
+  <si>
+    <t>柱状</t>
+  </si>
+  <si>
+    <t>resemble</t>
+  </si>
+  <si>
+    <t>类似，像</t>
+  </si>
+  <si>
+    <t>samurai</t>
+  </si>
+  <si>
+    <t>武士</t>
+  </si>
+  <si>
+    <t>slur</t>
+  </si>
+  <si>
+    <t>含糊地说，口齿不清地说；诽谤，诋毁</t>
+  </si>
+  <si>
+    <t>stall</t>
+  </si>
+  <si>
+    <t>货摊，摊位；售货亭</t>
+  </si>
+  <si>
+    <t>debunk</t>
+  </si>
+  <si>
+    <t>驳斥;揭穿，揭露…的真相</t>
+  </si>
+  <si>
+    <t>plethora</t>
+  </si>
+  <si>
+    <t>过多，过剩</t>
+  </si>
+  <si>
+    <t>frenzy</t>
+  </si>
+  <si>
+    <t>疯狂，狂热</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot; hh:mm"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -62,7 +230,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -77,27 +245,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment wrapText="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -107,39 +265,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -191,7 +349,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -248,7 +406,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -272,9 +430,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -298,10 +456,17 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -310,13 +475,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -333,7 +491,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -351,7 +509,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -376,369 +534,546 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3468CBF4-5C14-4D4D-9664-F6CA986F3B51}">
-  <dimension ref="A1:B40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="false" workbookViewId="0">
+      <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="20.0" hidden="false" customWidth="true"/>
+    <col min="1" max="1" width="20.0" hidden="false" customWidth="true"/>
+    <col min="3" max="3" width="20.0" hidden="false" customWidth="true"/>
+    <col min="2" max="2" width="20.0" hidden="false" customWidth="true"/>
+    <col min="4" max="4" width="20.0" hidden="false" customWidth="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
+    <row r="2" ht="12.75" customHeight="true">
+      <c r="A2" s="1" t="n">
+        <v>45508.43038194445</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="true">
+      <c r="A3" s="1" t="n">
+        <v>45508.44517361111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="true">
+      <c r="A4" s="1" t="n">
+        <v>45508.44664351852</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="true">
+      <c r="A5" s="1" t="n">
+        <v>45508.44719907407</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="true">
+      <c r="A6" s="1" t="n">
+        <v>45508.44844907407</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="true">
+      <c r="A7" s="1" t="n">
+        <v>45508.44912037037</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19">
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="true">
+      <c r="A8" s="1" t="n">
+        <v>45508.449479166666</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20">
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21">
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="true">
+      <c r="A9" s="1" t="n">
+        <v>45508.45075231481</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22">
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23">
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="true">
+      <c r="A10" s="1" t="n">
+        <v>45508.451203703706</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24">
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25">
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="true">
+      <c r="A11" s="1" t="n">
+        <v>45508.45171296296</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26">
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27">
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="true">
+      <c r="A12" s="1" t="n">
+        <v>45508.45211805555</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28">
+      <c r="D12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29">
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="true">
+      <c r="A13" s="1" t="n">
+        <v>45508.45282407408</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30">
+      <c r="D13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31">
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="true">
+      <c r="A14" s="1" t="n">
+        <v>45508.45348379629</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32">
+      <c r="D14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33">
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="true">
+      <c r="A15" s="1" t="n">
+        <v>45508.453784722224</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34">
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35">
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="true">
+      <c r="A16" s="1" t="n">
+        <v>45508.45417824074</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36">
+      <c r="D16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37">
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="true">
+      <c r="A17" s="1" t="n">
+        <v>45508.45445601852</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38">
+      <c r="D17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39">
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="true">
+      <c r="A18" s="1" t="n">
+        <v>45508.454780092594</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40">
+      <c r="D18" t="s">
         <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" ht="12.75" customHeight="true">
+      <c r="A19" s="1" t="n">
+        <v>45508.45513888889</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" ht="12.75" customHeight="true">
+      <c r="A20" s="1" t="n">
+        <v>45508.455416666664</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" ht="12.75" customHeight="true">
+      <c r="A21" s="1" t="n">
+        <v>45508.455729166664</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" ht="12.75" customHeight="true">
+      <c r="A22" s="1" t="n">
+        <v>45508.45674768519</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="true">
+      <c r="A23" s="1" t="n">
+        <v>45508.45717592593</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" ht="12.75" customHeight="true">
+      <c r="A24" s="1" t="n">
+        <v>45508.45777777778</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" ht="12.75" customHeight="true">
+      <c r="A25" s="1" t="n">
+        <v>45508.458182870374</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" ht="12.75" customHeight="true">
+      <c r="A26" s="1" t="n">
+        <v>45508.458969907406</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" ht="12.75" customHeight="true">
+      <c r="A27" s="1" t="n">
+        <v>45508.45925925926</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" ht="12.75" customHeight="true">
+      <c r="A28" s="1" t="n">
+        <v>45508.4596875</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" ht="12.75" customHeight="true">
+      <c r="A29" s="1" t="n">
+        <v>45508.46011574074</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" ht="12.75" customHeight="true">
+      <c r="A30" s="1" t="n">
+        <v>45508.46047453704</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/voc.xlsx
+++ b/voc.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiashu/voc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A2E83D-1B3F-CC42-902B-D0DAE43ED4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="VOC（收集结果）" sheetId="1" r:id="rId3"/>
+    <sheet name="VOC（收集结果）" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
   <si>
     <t>提交时间（自动）</t>
   </si>
@@ -207,18 +215,21 @@
   </si>
   <si>
     <t>疯狂，狂热</t>
+  </si>
+  <si>
+    <t>FR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot; hh:mm"/>
+    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;\ hh:mm"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -230,7 +241,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -247,15 +258,26 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment wrapText="false"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -406,7 +428,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -430,9 +452,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -456,7 +478,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -491,7 +513,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -509,7 +531,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -534,7 +556,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -543,30 +565,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0">
-      <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="20.0" hidden="false" customWidth="true"/>
-    <col min="1" max="1" width="20.0" hidden="false" customWidth="true"/>
-    <col min="3" max="3" width="20.0" hidden="false" customWidth="true"/>
-    <col min="2" max="2" width="20.0" hidden="false" customWidth="true"/>
-    <col min="4" max="4" width="20.0" hidden="false" customWidth="true"/>
+    <col min="1" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -583,9 +602,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="true">
-      <c r="A2" s="1" t="n">
-        <v>45508.43038194445</v>
+    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45508.430381944447</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -600,9 +619,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="true">
-      <c r="A3" s="1" t="n">
-        <v>45508.44517361111</v>
+    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>45508.445173611108</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -617,9 +636,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="true">
-      <c r="A4" s="1" t="n">
-        <v>45508.44664351852</v>
+    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>45508.446643518517</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -634,9 +653,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="true">
-      <c r="A5" s="1" t="n">
-        <v>45508.44719907407</v>
+    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>45508.447199074071</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -651,9 +670,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="true">
-      <c r="A6" s="1" t="n">
-        <v>45508.44844907407</v>
+    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45508.448449074072</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -668,9 +687,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="true">
-      <c r="A7" s="1" t="n">
-        <v>45508.44912037037</v>
+    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45508.449120370373</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -685,8 +704,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="true">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>45508.449479166666</v>
       </c>
       <c r="B8" t="s">
@@ -702,9 +721,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="true">
-      <c r="A9" s="1" t="n">
-        <v>45508.45075231481</v>
+    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>45508.450752314813</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -719,8 +738,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="true">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>45508.451203703706</v>
       </c>
       <c r="B10" t="s">
@@ -736,8 +755,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="true">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>45508.45171296296</v>
       </c>
       <c r="B11" t="s">
@@ -753,9 +772,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="true">
-      <c r="A12" s="1" t="n">
-        <v>45508.45211805555</v>
+    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45508.452118055553</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -770,9 +789,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="true">
-      <c r="A13" s="1" t="n">
-        <v>45508.45282407408</v>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>45508.452824074076</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -787,9 +806,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="true">
-      <c r="A14" s="1" t="n">
-        <v>45508.45348379629</v>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>45508.453483796293</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -804,8 +823,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="true">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>45508.453784722224</v>
       </c>
       <c r="B15" t="s">
@@ -821,8 +840,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="true">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>45508.45417824074</v>
       </c>
       <c r="B16" t="s">
@@ -838,9 +857,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="true">
-      <c r="A17" s="1" t="n">
-        <v>45508.45445601852</v>
+    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>45508.454456018517</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -855,8 +874,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="true">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>45508.454780092594</v>
       </c>
       <c r="B18" t="s">
@@ -872,9 +891,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" ht="12.75" customHeight="true">
-      <c r="A19" s="1" t="n">
-        <v>45508.45513888889</v>
+    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>45508.455138888887</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -889,8 +908,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" ht="12.75" customHeight="true">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>45508.455416666664</v>
       </c>
       <c r="B20" t="s">
@@ -906,8 +925,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" ht="12.75" customHeight="true">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>45508.455729166664</v>
       </c>
       <c r="B21" t="s">
@@ -923,9 +942,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="true">
-      <c r="A22" s="1" t="n">
-        <v>45508.45674768519</v>
+    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>45508.456747685188</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -940,9 +959,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" ht="12.75" customHeight="true">
-      <c r="A23" s="1" t="n">
-        <v>45508.45717592593</v>
+    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>45508.457175925927</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -957,9 +976,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="true">
-      <c r="A24" s="1" t="n">
-        <v>45508.45777777778</v>
+    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>45508.457777777781</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -974,8 +993,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" ht="12.75" customHeight="true">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>45508.458182870374</v>
       </c>
       <c r="B25" t="s">
@@ -991,8 +1010,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" ht="12.75" customHeight="true">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>45508.458969907406</v>
       </c>
       <c r="B26" t="s">
@@ -1008,8 +1027,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" ht="12.75" customHeight="true">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>45508.45925925926</v>
       </c>
       <c r="B27" t="s">
@@ -1025,9 +1044,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" ht="12.75" customHeight="true">
-      <c r="A28" s="1" t="n">
-        <v>45508.4596875</v>
+    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>45508.459687499999</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -1042,9 +1061,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" ht="12.75" customHeight="true">
-      <c r="A29" s="1" t="n">
-        <v>45508.46011574074</v>
+    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>45508.460115740738</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -1059,9 +1078,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" ht="12.75" customHeight="true">
-      <c r="A30" s="1" t="n">
-        <v>45508.46047453704</v>
+    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>45508.460474537038</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -1074,6 +1093,11 @@
       </c>
       <c r="E30" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
